--- a/enjoytrip_RESTAPI설계.xlsx
+++ b/enjoytrip_RESTAPI설계.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSAFY\workspace\springtest\03_ynwoo_jmin_restapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="109">
   <si>
     <t>서비스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,10 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/PlanBoard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,43 +309,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>HotPlace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫플레이스등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫플레이스조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫플레이스삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/HotPlace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotPlace.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharingTripInfo.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharingTripInfo.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>여행계획{"tripPlan", tripPlan}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HotPlace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핫플레이스등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핫플레이스조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핫플레이스삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/HotPlace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hotPlace.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sharingTripInfo.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sharingTripInfo.jsp</t>
+    <t>핫플목록{"hotPlaces", hotPlaces}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/User/join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/User/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/User/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/User/logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/User/findPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'id' : 'ssafy', 'password' : 'ssafy', 'email' : 'ssafy@ssafy.com', 'name' : '김싸피', 'age' : '20'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'id' : 'ssafy', 'password' : 'ssafy'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'id' : 'ssafy', 'email' : 'ssafy@ssafy.com'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Attraction/searchContentType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Attraction/searchKeyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'state' : '1' , 'cat' : '1', 'content' : '12'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -357,35 +409,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>핫플목록{"hotPlaces", hotPlaces}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/User/join</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/User/update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/User/delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/User/logout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/User/findPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'id' : 'ssafy', 'password' : 'ssafy', 'email' : 'ssafy@ssafy.com', 'name' : '김싸피', 'age' : '20'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'id' : 'ssafy', 'password' : 'ssafy'}</t>
+    <t>{'state' : '1' , 'cat' : '1', 'keyWord' : '공원'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/User/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행계획수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -393,27 +433,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DELETE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'id' : 'ssafy', 'email' : 'ssafy@ssafy.com'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Attraction/searchContentType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Attraction/searchKeyword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'state' : '1' , 'cat' : '1', 'content' : '12'}</t>
+    <t>/PlanBoard/{articleno}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행계획목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -421,11 +445,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'state' : '1' , 'cat' : '1', 'keyWord' : '공원'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/User/login</t>
+    <t>[{'id' : 'ssafy', 'title' : '제목입니다', 'plan_order' : '125266-125405-125406', 'article_content' : '여행계획내용입니다어쩌구저쩌구', 'register_time' : '2023-05-03:14:25'}, {'id' : 'ssafy', 'title' : '제목입니다', 'plan_order' : '125266&amp;125405&amp;125406', 'article_content' : '여행계획내용입니다어쩌구저쩌구', 'register_time' : '2023-05-03:14:25'}, ..., ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'id' : 'ssafy', 'title' : '제목입니다', 'plan_order' : '125266-125405-125406', 'article_content' : '여행계획내용입니다어쩌구저쩌구', 'register_time' : '2023-05-03:14:25'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행계획{"tripPlan", tripPlan} : {'id' : 'ssafy', 'title' : '제목입니다', 'plan_order' : '125266-125405-125406', 'article_content' : '여행계획내용입니다어쩌구저쩌구', 'register_time' : '2023-05-03:14:25'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'id' : 'ssafy', 'title' : '제목입니다', 'plan_order' : '125266-125405-125406', 'article_content' : '여행계획내용입니다어쩌구저쩌구'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -845,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -855,7 +887,7 @@
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="29.75" customWidth="1"/>
     <col min="6" max="6" width="47" style="2" customWidth="1"/>
     <col min="7" max="7" width="49.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.25" customWidth="1"/>
@@ -900,10 +932,10 @@
         <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="9" t="s">
@@ -916,13 +948,13 @@
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="9" t="s">
@@ -935,13 +967,13 @@
         <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="9" t="s">
@@ -954,10 +986,10 @@
         <v>49</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
@@ -974,7 +1006,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
@@ -988,13 +1020,13 @@
         <v>54</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="9" t="s">
@@ -1021,10 +1053,10 @@
         <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>58</v>
@@ -1042,10 +1074,10 @@
         <v>63</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>61</v>
@@ -1091,83 +1123,103 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="4"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="66" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
+      <c r="C21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="H21" s="9" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1182,86 +1234,83 @@
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="4"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="3" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="4"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="3" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="H27" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="H29" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>

--- a/enjoytrip_RESTAPI설계.xlsx
+++ b/enjoytrip_RESTAPI설계.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSAFY\workspace\springtest\03_ynwoo_jmin_restapi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSAFY\spring0418\03_ynwoo_jmin\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38327E8-8159-48C6-AD74-8CA5BD37BF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11790" windowHeight="7410"/>
+    <workbookView xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="서비스" sheetId="1" r:id="rId1"/>
@@ -464,7 +465,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -562,7 +563,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -582,12 +583,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1">
@@ -874,11 +869,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -938,7 +933,7 @@
         <v>86</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -957,7 +952,7 @@
         <v>87</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -976,7 +971,7 @@
         <v>86</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -993,7 +988,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1010,7 +1005,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1029,7 +1024,7 @@
         <v>91</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1040,9 +1035,9 @@
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>64</v>
       </c>
@@ -1061,7 +1056,7 @@
       <c r="G11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1082,7 +1077,7 @@
       <c r="G12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1167,7 +1162,7 @@
         <v>108</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="7" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1186,7 +1181,7 @@
       <c r="G20" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1205,7 +1200,7 @@
         <v>106</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1272,7 +1267,7 @@
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="7" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1291,7 +1286,7 @@
       <c r="G28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="7" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1308,7 +1303,7 @@
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="7" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1330,135 +1325,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="100" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
         <v>53</v>
       </c>
@@ -1478,7 +1345,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
         <v>6</v>
       </c>
@@ -1518,7 +1385,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="s">
         <v>9</v>
       </c>
@@ -1580,7 +1447,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107" s="3" t="s">
         <v>9</v>
       </c>
@@ -1618,7 +1485,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="109" spans="2:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:7" ht="66" x14ac:dyDescent="0.3">
       <c r="B109" s="3" t="s">
         <v>10</v>
       </c>
@@ -1638,7 +1505,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="2:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:7" ht="66" x14ac:dyDescent="0.3">
       <c r="B110" s="3" t="s">
         <v>11</v>
       </c>
@@ -1658,7 +1525,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B111" s="3" t="s">
         <v>12</v>
       </c>
@@ -1681,7 +1548,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/enjoytrip_RESTAPI설계.xlsx
+++ b/enjoytrip_RESTAPI설계.xlsx
@@ -878,7 +878,7 @@
   <dimension ref="B2:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1042,7 +1042,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>64</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
     </row>
-    <row r="100" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
         <v>53</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
         <v>6</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="s">
         <v>9</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107" s="3" t="s">
         <v>9</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="109" spans="2:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:7" ht="66" x14ac:dyDescent="0.3">
       <c r="B109" s="3" t="s">
         <v>10</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="2:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:7" ht="66" x14ac:dyDescent="0.3">
       <c r="B110" s="3" t="s">
         <v>11</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B111" s="3" t="s">
         <v>12</v>
       </c>

--- a/enjoytrip_RESTAPI설계.xlsx
+++ b/enjoytrip_RESTAPI설계.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11790" windowHeight="7410"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23880" windowHeight="10530"/>
   </bookViews>
   <sheets>
     <sheet name="서비스" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="111">
   <si>
     <t>서비스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,10 +317,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>핫플레이스조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>핫플레이스삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -445,19 +441,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{'id' : 'ssafy', 'title' : '제목입니다', 'plan_order' : '125266-125405-125406', 'article_content' : '여행계획내용입니다어쩌구저쩌구', 'register_time' : '2023-05-03:14:25'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행계획{"tripPlan", tripPlan} : {'id' : 'ssafy', 'title' : '제목입니다', 'plan_order' : '125266-125405-125406', 'article_content' : '여행계획내용입니다어쩌구저쩌구', 'register_time' : '2023-05-03:14:25'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫플레이스상세조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫플레이스목록조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫플레이스수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[{'id' : 'ssafy', 'title' : '제목입니다', 'plan_order' : '125266-125405-125406', 'article_content' : '여행계획내용입니다어쩌구저쩌구', 'register_time' : '2023-05-03:14:25'}, {'id' : 'ssafy', 'title' : '제목입니다', 'plan_order' : '125266&amp;125405&amp;125406', 'article_content' : '여행계획내용입니다어쩌구저쩌구', 'register_time' : '2023-05-03:14:25'}, ..., ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'id' : 'ssafy', 'title' : '제목입니다', 'plan_order' : '125266-125405-125406', 'article_content' : '여행계획내용입니다어쩌구저쩌구', 'register_time' : '2023-05-03:14:25'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행계획{"tripPlan", tripPlan} : {'id' : 'ssafy', 'title' : '제목입니다', 'plan_order' : '125266-125405-125406', 'article_content' : '여행계획내용입니다어쩌구저쩌구', 'register_time' : '2023-05-03:14:25'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'id' : 'ssafy', 'title' : '제목입니다', 'plan_order' : '125266-125405-125406', 'article_content' : '여행계획내용입니다어쩌구저쩌구'}</t>
+    <t>{'title' : '제목입니다', 'plan_order' : '125266-125405-125406', 'article_content' : '여행계획내용입니다어쩌구저쩌구'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -878,7 +886,7 @@
   <dimension ref="B2:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -932,10 +940,10 @@
         <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="9" t="s">
@@ -948,13 +956,13 @@
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="9" t="s">
@@ -967,13 +975,13 @@
         <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="9" t="s">
@@ -986,10 +994,10 @@
         <v>49</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
@@ -1006,7 +1014,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
@@ -1020,13 +1028,13 @@
         <v>54</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="9" t="s">
@@ -1053,10 +1061,10 @@
         <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>58</v>
@@ -1074,10 +1082,10 @@
         <v>63</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>61</v>
@@ -1124,7 +1132,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1138,17 +1146,17 @@
         <v>65</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>67</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H18" s="3"/>
     </row>
@@ -1164,11 +1172,11 @@
         <v>67</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="66" x14ac:dyDescent="0.3">
@@ -1180,33 +1188,33 @@
         <v>69</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="F21" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
@@ -1215,10 +1223,10 @@
         <v>70</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="3"/>
@@ -1268,62 +1276,70 @@
         <v>14</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
       <c r="H27" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
       <c r="H29" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>

--- a/enjoytrip_RESTAPI설계.xlsx
+++ b/enjoytrip_RESTAPI설계.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSAFY\workspace\springtest\03_ynwoo_jmin_restapi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSAFY\spring0418\03_ynwoo_jmin\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA8CF69-5C46-416B-9189-C92D3231BAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23880" windowHeight="10530"/>
+    <workbookView xWindow="3765" yWindow="300" windowWidth="25005" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="서비스" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="103">
   <si>
     <t>서비스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>응답page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/users/list.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,10 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://localhost:8080/03_jmlee_ynwoo/index.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>User</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,14 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/user/login.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/index.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정보수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,13 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/User?action=logout</t>
-  </si>
-  <si>
-    <t>/User?action=logout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/user/login.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/Attraction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/search.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나의여행계획-키워드검색</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,10 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/plan.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,10 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/PlanBoard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여행계획조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,18 +287,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hotPlace.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sharingTripInfo.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sharingTripInfo.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -465,14 +415,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'title' : '제목입니다', 'plan_order' : '125266-125405-125406', 'article_content' : '여행계획내용입니다어쩌구저쩌구'}</t>
+    <t>{
+	"userId" : "ssafy",
+	"title" : "오늘은 5월 21일", 
+	"order" : "125266-125405-125406", 
+	"content" : "오후 12시 49분입니다!!!!"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/article?pg=1&amp;key=title&amp;word=검색할단어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key는 title, user_id, content 3개중 하나, 없어도 검색가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -570,7 +545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,12 +565,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1">
@@ -882,11 +851,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -898,12 +867,12 @@
     <col min="5" max="5" width="29.75" customWidth="1"/>
     <col min="6" max="6" width="47" style="2" customWidth="1"/>
     <col min="7" max="7" width="49.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.25" customWidth="1"/>
+    <col min="8" max="8" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
@@ -926,29 +895,27 @@
         <v>5</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
@@ -956,90 +923,80 @@
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="2:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="9" t="s">
-        <v>52</v>
-      </c>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
@@ -1048,51 +1005,47 @@
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="9"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>59</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="2:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>62</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
@@ -1132,7 +1085,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1143,90 +1096,86 @@
     </row>
     <row r="18" spans="2:8" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>67</v>
+        <v>90</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="99" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>67</v>
+      <c r="E19" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="9" t="s">
-        <v>76</v>
-      </c>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="2:8" ht="66" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>77</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="3"/>
@@ -1267,69 +1216,63 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>75</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="H29" s="7"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
@@ -1338,7 +1281,7 @@
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1346,137 +1289,9 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-    </row>
     <row r="100" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>14</v>
@@ -1488,10 +1303,10 @@
         <v>19</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.3">
@@ -1508,10 +1323,10 @@
         <v>20</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.3">
@@ -1525,13 +1340,13 @@
         <v>18</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.3">
@@ -1545,13 +1360,13 @@
         <v>18</v>
       </c>
       <c r="E103" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F103" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F103" s="3" t="s">
+      <c r="G103" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.3">
@@ -1565,11 +1380,11 @@
         <v>18</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.3">
@@ -1584,16 +1399,16 @@
         <v>15</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F106" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G106" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.3">
@@ -1607,13 +1422,13 @@
         <v>17</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.3">
@@ -1627,11 +1442,11 @@
         <v>17</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="2:7" ht="66" x14ac:dyDescent="0.3">
@@ -1645,13 +1460,13 @@
         <v>17</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="2:7" ht="66" x14ac:dyDescent="0.3">
@@ -1665,13 +1480,13 @@
         <v>17</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.3">
@@ -1682,22 +1497,22 @@
         <v>15</v>
       </c>
       <c r="D111" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E111" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E111" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="F111" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://localhost:8080/03_jmlee_ynwoo/index.jsp" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/enjoytrip_RESTAPI설계.xlsx
+++ b/enjoytrip_RESTAPI설계.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSAFY\spring0418\03_ynwoo_jmin\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA8CF69-5C46-416B-9189-C92D3231BAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="300" windowWidth="25005" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10860" windowHeight="5550"/>
   </bookViews>
   <sheets>
     <sheet name="서비스" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="106">
   <si>
     <t>서비스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -443,11 +438,23 @@
     <t>http://localhost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>컨텐츠id조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Attraction/{contentId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 id 여행지 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -851,11 +858,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1049,11 +1056,19 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
@@ -1512,7 +1527,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://localhost:8080/03_jmlee_ynwoo/index.jsp" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://localhost:8080/03_jmlee_ynwoo/index.jsp"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/enjoytrip_RESTAPI설계.xlsx
+++ b/enjoytrip_RESTAPI설계.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSAFY\workspace\springtest\03_ynwoo_jmin_restapi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10860" windowHeight="5550"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="서비스" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -861,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/enjoytrip_RESTAPI설계.xlsx
+++ b/enjoytrip_RESTAPI설계.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="105">
   <si>
     <t>서비스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,10 +331,6 @@
   </si>
   <si>
     <t>PUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'id' : 'ssafy', 'email' : 'ssafy@ssafy.com'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -451,7 +447,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>해당 id 여행지 정보</t>
+    <t>{"email": "p@p.com"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -865,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -883,7 +879,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
@@ -906,7 +902,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="33" x14ac:dyDescent="0.3">
@@ -934,10 +930,10 @@
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>73</v>
@@ -1004,7 +1000,7 @@
         <v>71</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="7"/>
@@ -1029,10 +1025,10 @@
         <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>51</v>
@@ -1048,10 +1044,10 @@
         <v>54</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>53</v>
@@ -1061,18 +1057,16 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="3" t="s">
-        <v>105</v>
-      </c>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
@@ -1104,7 +1098,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1118,20 +1112,20 @@
         <v>56</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="99" x14ac:dyDescent="0.3">
@@ -1143,10 +1137,10 @@
         <v>14</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="7"/>
@@ -1160,27 +1154,27 @@
         <v>59</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="F21" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="7"/>
@@ -1191,10 +1185,10 @@
         <v>60</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="3"/>
@@ -1253,7 +1247,7 @@
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>65</v>
@@ -1285,7 +1279,7 @@
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>15</v>
@@ -1300,7 +1294,7 @@
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>

--- a/enjoytrip_RESTAPI설계.xlsx
+++ b/enjoytrip_RESTAPI설계.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="110">
   <si>
     <t>서비스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,30 +270,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HotPlace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핫플레이스등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핫플레이스삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/HotPlace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>핫플목록{"hotPlaces", hotPlaces}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/User/join</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -399,10 +379,6 @@
   </si>
   <si>
     <t>핫플레이스목록조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핫플레이스수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -427,27 +403,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>key는 title, user_id, content 3개중 하나, 없어도 검색가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨텐츠id조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Attraction/{contentId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"email": "p@p.com"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotplace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫플레이스 댓글 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hotplace/{placeno}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫플정보{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"userId" : "ssafy", 
+	"content" : "댓글 달기 기능입니다"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫플레이스 댓글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫플레이스 댓글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/article?pg=1&amp;key=title&amp;word=검색할단어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>key는 title, user_id, content 3개중 하나, 없어도 검색가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컨텐츠id조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Attraction/{contentId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"email": "p@p.com"}</t>
+    <t>/hotplace?pg=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫플목록 20개{"hotPlaces", hotPlaces}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글도 같이 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +478,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,8 +520,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,8 +547,13 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -540,8 +576,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,8 +613,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -577,9 +642,19 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="나쁨" xfId="2" builtinId="27"/>
+    <cellStyle name="메모" xfId="3" builtinId="10"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -861,15 +936,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.75" customWidth="1"/>
     <col min="6" max="6" width="47" style="2" customWidth="1"/>
@@ -879,7 +954,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
@@ -902,7 +977,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="33" x14ac:dyDescent="0.3">
@@ -916,10 +991,10 @@
         <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="7"/>
@@ -930,13 +1005,13 @@
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="7"/>
@@ -947,13 +1022,13 @@
         <v>44</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="7"/>
@@ -964,10 +1039,10 @@
         <v>45</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
@@ -982,7 +1057,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
@@ -994,13 +1069,13 @@
         <v>48</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="7"/>
@@ -1025,10 +1100,10 @@
         <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>51</v>
@@ -1044,10 +1119,10 @@
         <v>54</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>53</v>
@@ -1057,13 +1132,13 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="3"/>
@@ -1098,7 +1173,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1112,20 +1187,20 @@
         <v>56</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="99" x14ac:dyDescent="0.3">
@@ -1137,10 +1212,10 @@
         <v>14</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="7"/>
@@ -1154,27 +1229,27 @@
         <v>59</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="7"/>
@@ -1185,10 +1260,10 @@
         <v>60</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="3"/>
@@ -1229,78 +1304,99 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>64</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3" t="s">
-        <v>66</v>
+      <c r="C28" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="66" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" ht="66" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="4"/>
+        <v>103</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="100" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">

--- a/enjoytrip_RESTAPI설계.xlsx
+++ b/enjoytrip_RESTAPI설계.xlsx
@@ -936,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/enjoytrip_RESTAPI설계.xlsx
+++ b/enjoytrip_RESTAPI설계.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="117">
   <si>
     <t>서비스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,10 +450,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>핫플레이스 댓글 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -471,6 +467,51 @@
   </si>
   <si>
     <t>댓글도 같이 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫플레이스 댓글 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "contentId" : "125266",
+ "userId" : "ssafy",
+ "commentText" : "댓글달기기능"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hotplace/comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hotplace/comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hotplace/comment/{contentId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당하는 관광지에 대한 댓글 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ {
+	"userId" : "ssafy", 
+	"content" : "댓글 달기 기능입니다"
+}, {
+ "userId" : "ssafy", 
+ "content" : "댓글 달기 기능입니다"
+}, {
+ "userId" : "ssafy", 
+ "content" : "댓글 달기 기능입니다"
+}, ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,7 +658,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -650,6 +691,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -936,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1193,7 +1237,7 @@
         <v>84</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
@@ -1322,11 +1366,11 @@
         <v>61</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H28" s="7"/>
     </row>
@@ -1346,57 +1390,77 @@
         <v>101</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="66" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="165" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="2:8" ht="66" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" ht="66" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C34" s="11"/>
     </row>
     <row r="100" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">

--- a/enjoytrip_RESTAPI설계.xlsx
+++ b/enjoytrip_RESTAPI설계.xlsx
@@ -519,7 +519,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,14 +555,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -570,7 +562,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,16 +577,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -632,33 +619,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -680,25 +653,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
-    <cellStyle name="메모" xfId="3" builtinId="10"/>
+  <cellStyles count="3">
+    <cellStyle name="메모" xfId="2" builtinId="10"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -980,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1041,7 +1010,7 @@
         <v>67</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="7"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
@@ -1058,7 +1027,7 @@
         <v>68</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="2:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
@@ -1075,7 +1044,7 @@
         <v>67</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="7"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
@@ -1090,7 +1059,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
@@ -1105,7 +1074,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
@@ -1122,7 +1091,7 @@
         <v>97</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="7"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
@@ -1131,7 +1100,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
@@ -1152,7 +1121,7 @@
       <c r="G11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="2:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
@@ -1171,7 +1140,7 @@
       <c r="G12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
@@ -1262,7 +1231,7 @@
         <v>90</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="7"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="2:8" ht="66" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
@@ -1279,7 +1248,7 @@
       <c r="G20" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
@@ -1296,7 +1265,7 @@
         <v>85</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="7"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
@@ -1329,6 +1298,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="4"/>
       <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
@@ -1337,6 +1307,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="4"/>
       <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
@@ -1345,6 +1316,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4"/>
       <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
@@ -1355,41 +1327,41 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="9" t="s">
+      <c r="F28" s="8"/>
+      <c r="G28" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H28" s="7"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="9" t="s">
+      <c r="F29" s="8"/>
+      <c r="G29" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="10" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1460,7 +1432,7 @@
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C34" s="11"/>
+      <c r="C34" s="9"/>
     </row>
     <row r="100" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">

--- a/enjoytrip_RESTAPI설계.xlsx
+++ b/enjoytrip_RESTAPI설계.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="116">
   <si>
     <t>서비스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,147 +98,328 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>action=regist&amp;id=ssafy&amp;pass=123&amp;name=ssafy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action=login&amp;id=ssafy&amp;pass=123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action=list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action=view&amp;id=ssafy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action=logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서목록{"books",books}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/books/list.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/books/view.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서정보{"book",book}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action=view&amp;isbn=1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action=registForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/books/regist.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action=regist&amp;isbn=1234&amp;title=자바&amp;author=ssafy&amp;price=20000&amp;desc=자바배우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action=update&amp;isbn=1234&amp;title=자바&amp;author=ssafy&amp;price=25000&amp;desc=자바배우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>books?action=list - 도서목록 {"books", books}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action=delete&amp;isbn=1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별여행지검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의여행계획-키워드검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행계획등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행계획조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행계획삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행계획수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행계획목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫플레이스상세조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫플레이스목록조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨텐츠id조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫플레이스 댓글 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hotplace/{placeno}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫플레이스 댓글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫플레이스 댓글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/article?pg=1&amp;key=title&amp;word=검색할단어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hotplace?pg=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫플목록 20개{"hotPlaces", hotPlaces}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫플레이스 댓글 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hotplace/comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hotplace/comment/{contentId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"email": "ssafy@ssafy.com"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/join</t>
+  </si>
+  <si>
+    <t>/user/login</t>
+  </si>
+  <si>
+    <t>/user/findPassword</t>
+  </si>
+  <si>
     <t>/users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>action=regist&amp;id=ssafy&amp;pass=123&amp;name=ssafy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>action=login&amp;id=ssafy&amp;pass=123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>users?action=list  - 회원목록 {"users", user}</t>
   </si>
   <si>
     <t>/users/list.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>action=list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>action=view&amp;id=ssafy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원목록 {"users", user}</t>
   </si>
   <si>
     <t>회원정보 {"userInfo", user}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/users/view.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원목록 {"users", user}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>action=logout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/users/home.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서목록{"books",books}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/books/list.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/books/view.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서정보{"book",book}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>action=view&amp;isbn=1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>action=registForm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/books/regist.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>action=regist&amp;isbn=1234&amp;title=자바&amp;author=ssafy&amp;price=20000&amp;desc=자바배우기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>action=update&amp;isbn=1234&amp;title=자바&amp;author=ssafy&amp;price=25000&amp;desc=자바배우기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>users?action=list  - 회원목록 {"users", user}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>books?action=list - 도서목록 {"books", books}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/book</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>action=delete&amp;isbn=1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Attraction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역별여행지검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행지목록{"attractions", attractions}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나의여행계획-키워드검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행지목록{"attractions", attractions}</t>
+  </si>
+  <si>
+    <t>/attraction/{contentId}</t>
+  </si>
+  <si>
+    <t>/attraction</t>
+  </si>
+  <si>
+    <t>/article/{articleno}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/article/{articleno}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/article/{articleno}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관광지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key : title, user_id, content
+key값 없어도 검색가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hotplace/comment/{contentId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 관광지에 대한 댓글 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫플레이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "id" : "ssafy",
+ "password" : "ssafy",
+ "email" : "ssafy@ssafy.com",
+ "name" : "김싸피",
+ "age" : 5
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "userid" : "ssafy",
+ "userpwd" : "ssafy"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "id" : "ssafy",
+ "password" : "ssafy",
+ "email" : "ssafy@ssafy.com",
+ "name" : "김싸피",
+ "age" : 6
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업데이트 성공!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password, name, age 만 변경 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id, email 중복 방지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user/ssafy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>/user/logout/ssafy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "message": "success"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -246,272 +427,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Attraction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlanBoard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행계획등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행계획조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행계획삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/User/join</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/User/update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/User/delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/User/logout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/User/findPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'id' : 'ssafy', 'password' : 'ssafy', 'email' : 'ssafy@ssafy.com', 'name' : '김싸피', 'age' : '20'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'id' : 'ssafy', 'password' : 'ssafy'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELETE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Attraction/searchContentType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Attraction/searchKeyword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'state' : '1' , 'cat' : '1', 'content' : '12'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'state' : '1' , 'cat' : '1', 'keyWord' : '공원'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/User/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELETE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행계획수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/PlanBoard/{articleno}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행계획목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'id' : 'ssafy', 'title' : '제목입니다', 'plan_order' : '125266-125405-125406', 'article_content' : '여행계획내용입니다어쩌구저쩌구', 'register_time' : '2023-05-03:14:25'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행계획{"tripPlan", tripPlan} : {'id' : 'ssafy', 'title' : '제목입니다', 'plan_order' : '125266-125405-125406', 'article_content' : '여행계획내용입니다어쩌구저쩌구', 'register_time' : '2023-05-03:14:25'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핫플레이스상세조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핫플레이스목록조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{'id' : 'ssafy', 'title' : '제목입니다', 'plan_order' : '125266-125405-125406', 'article_content' : '여행계획내용입니다어쩌구저쩌구', 'register_time' : '2023-05-03:14:25'}, {'id' : 'ssafy', 'title' : '제목입니다', 'plan_order' : '125266&amp;125405&amp;125406', 'article_content' : '여행계획내용입니다어쩌구저쩌구', 'register_time' : '2023-05-03:14:25'}, ..., ]</t>
+    <t>/attraction/searchContentType?sidoCode=1&amp;gugunCode=11&amp;contentTypeId=12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/attraction/searchKeyword?sidoCode=1&amp;gugunCode=1&amp;keyword=공원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "refresh-token": "",
+ "access-token": "",
+ "message": "success"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일 여행지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ attraction }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[attraction, attraction2, … , attraction]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{article}, {article2}, … , ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
 	"userId" : "ssafy",
-	"title" : "오늘은 5월 21일", 
+	"title" : "강남 공원 나들이", 
 	"order" : "125266-125405-125406", 
-	"content" : "오후 12시 49분입니다!!!!"
+	"content" : "날씨가 좋네요"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/article</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key는 title, user_id, content 3개중 하나, 없어도 검색가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컨텐츠id조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Attraction/{contentId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"email": "p@p.com"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hotplace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핫플레이스 댓글 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hotplace/{placeno}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핫플정보{}</t>
+    <t>{article}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일 게시글</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
-	"userId" : "ssafy", 
-	"content" : "댓글 달기 기능입니다"
+ "articleNo" : 1,
+ "userId" : "ssafy",
+ "title" : "강남 공원 나들이", 
+ "content" : "날씨가 좋네요 :)"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>핫플레이스 댓글 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핫플레이스 댓글 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/article?pg=1&amp;key=title&amp;word=검색할단어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hotplace?pg=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핫플목록 20개{"hotPlaces", hotPlaces}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글도 같이 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핫플레이스 댓글 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일 장소 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ {comment}, {comment1}, {comment2} ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
  "contentId" : "125266",
  "userId" : "ssafy",
- "commentText" : "댓글달기기능"
+ "commentText" : "좋아요"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/hotplace/comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hotplace/comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hotplace/comment/{contentId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당하는 관광지에 대한 댓글 리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ {
-	"userId" : "ssafy", 
-	"content" : "댓글 달기 기능입니다"
-}, {
- "userId" : "ssafy", 
- "content" : "댓글 달기 기능입니다"
-}, {
- "userId" : "ssafy", 
- "content" : "댓글 달기 기능입니다"
-}, ]</t>
+    <t>{
+ "commentId" : 28,
+ "contentId" : "125266",
+ "userId" : "ssafy",
+ "commentText" : "아주 좋아요"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,12 +560,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -573,11 +576,6 @@
       <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -606,28 +604,23 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -653,21 +646,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="메모" xfId="2" builtinId="10"/>
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -949,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -962,13 +954,11 @@
     <col min="5" max="5" width="29.75" customWidth="1"/>
     <col min="6" max="6" width="47" style="2" customWidth="1"/>
     <col min="7" max="7" width="49.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.25" customWidth="1"/>
+    <col min="8" max="8" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
@@ -990,190 +980,207 @@
         <v>5</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:8" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="9"/>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H5" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="9"/>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+      <c r="C14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
@@ -1185,110 +1192,116 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="2:8" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>105</v>
-      </c>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="99" x14ac:dyDescent="0.3">
+      <c r="G18" s="4"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="2:8" ht="66" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="99" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4" t="s">
-        <v>86</v>
+        <v>14</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="99" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
+      <c r="F22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
@@ -1319,9 +1332,7 @@
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="B27" s="8"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1330,128 +1341,144 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
-      <c r="C28" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="B28" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
-      <c r="C29" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="C29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="165" x14ac:dyDescent="0.3">
+      <c r="E29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="82.5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="2:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="H31" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G32" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" ht="99" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C34" s="9"/>
+        <v>63</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="3"/>
     </row>
     <row r="100" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E100" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="F100" s="3" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.3">
@@ -1462,16 +1489,16 @@
         <v>14</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.3">
@@ -1482,16 +1509,16 @@
         <v>15</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.3">
@@ -1502,16 +1529,16 @@
         <v>15</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.3">
@@ -1522,14 +1549,14 @@
         <v>15</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.3">
@@ -1544,16 +1571,16 @@
         <v>15</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.3">
@@ -1567,13 +1594,13 @@
         <v>17</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.3">
@@ -1587,11 +1614,11 @@
         <v>17</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" spans="2:7" ht="66" x14ac:dyDescent="0.3">
@@ -1605,13 +1632,13 @@
         <v>17</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="2:7" ht="66" x14ac:dyDescent="0.3">
@@ -1625,13 +1652,13 @@
         <v>17</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.3">
@@ -1642,24 +1669,21 @@
         <v>15</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://localhost:8080/03_jmlee_ynwoo/index.jsp"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>